--- a/NEW HR/CABRAL, RAFAEL M..xlsx
+++ b/NEW HR/CABRAL, RAFAEL M..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\CASUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F22DC1-9D5A-424C-820F-C68819534E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="BALANCE_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>PERIOD</t>
   </si>
@@ -183,11 +184,14 @@
   <si>
     <t>TOTAL LEAVE</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -418,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,15 +567,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -584,11 +579,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,11 +600,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -803,24 +846,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -863,24 +888,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1044,7 +1051,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1087,7 +1094,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,7 +1158,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1218,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1284,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1347,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1445,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1504,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1569,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1612,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1687,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1873,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1939,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1997,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2063,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2119,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2194,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2237,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2303,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2359,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2457,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2520,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2569,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2579,25 +2586,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K102" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K102" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2609,13 +2616,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="7">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2624,14 +2631,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="3">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="2">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2935,7 +2942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2945,7 +2952,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2953,34 +2960,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A34" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4788" topLeftCell="A44" activePane="bottomLeft"/>
+      <selection activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2992,16 +2999,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3010,18 +3017,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <v>44013</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3032,16 +3039,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3049,7 +3056,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3062,24 +3069,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3114,7 +3121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3123,7 +3130,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>30</v>
+        <v>33.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3133,30 +3140,34 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>40</v>
+        <v>43.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="61" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="61" t="s">
+        <v>49</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>44013</v>
       </c>
@@ -3176,7 +3187,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>44044</v>
       </c>
@@ -3196,7 +3207,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>44075</v>
       </c>
@@ -3216,7 +3227,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>44105</v>
       </c>
@@ -3236,7 +3247,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>44136</v>
       </c>
@@ -3256,7 +3267,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>44166</v>
       </c>
@@ -3276,7 +3287,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>42</v>
       </c>
@@ -3294,7 +3305,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>44197</v>
       </c>
@@ -3314,7 +3325,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>44228</v>
       </c>
@@ -3334,7 +3345,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>44256</v>
       </c>
@@ -3354,7 +3365,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>44287</v>
       </c>
@@ -3374,7 +3385,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>44317</v>
       </c>
@@ -3394,7 +3405,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <v>44348</v>
       </c>
@@ -3414,7 +3425,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>44378</v>
       </c>
@@ -3434,7 +3445,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>44409</v>
       </c>
@@ -3454,7 +3465,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>44440</v>
       </c>
@@ -3474,7 +3485,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>44470</v>
       </c>
@@ -3494,7 +3505,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>44501</v>
       </c>
@@ -3514,7 +3525,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>44531</v>
       </c>
@@ -3538,7 +3549,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>43</v>
       </c>
@@ -3556,7 +3567,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>44562</v>
       </c>
@@ -3576,7 +3587,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>44593</v>
       </c>
@@ -3596,7 +3607,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <v>44621</v>
       </c>
@@ -3616,7 +3627,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <v>44652</v>
       </c>
@@ -3636,7 +3647,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <v>44682</v>
       </c>
@@ -3656,7 +3667,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>44713</v>
       </c>
@@ -3676,7 +3687,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <v>44743</v>
       </c>
@@ -3696,7 +3707,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <v>44774</v>
       </c>
@@ -3716,7 +3727,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>44805</v>
       </c>
@@ -3736,7 +3747,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <v>44835</v>
       </c>
@@ -3756,7 +3767,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <v>44866</v>
       </c>
@@ -3776,7 +3787,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <v>44896</v>
       </c>
@@ -3800,7 +3811,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>44</v>
       </c>
@@ -3818,7 +3829,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <v>44927</v>
       </c>
@@ -3838,7 +3849,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
         <v>44958</v>
       </c>
@@ -3858,56 +3869,70 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="39">
+        <v>44986</v>
+      </c>
       <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="38"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="39">
+        <v>45017</v>
+      </c>
       <c r="B47" s="20"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="38"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="39">
+        <v>45047</v>
+      </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="38"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="38"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="39">
+        <v>45078</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="38"/>
@@ -3922,8 +3947,10 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="39">
+        <v>45108</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="38"/>
@@ -3938,7 +3965,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3954,7 +3981,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3970,7 +3997,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3986,7 +4013,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4002,7 +4029,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4018,7 +4045,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4034,7 +4061,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4050,7 +4077,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4066,7 +4093,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4082,7 +4109,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4098,7 +4125,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4114,7 +4141,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4130,7 +4157,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4146,7 +4173,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4162,7 +4189,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4178,7 +4205,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4194,7 +4221,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4210,7 +4237,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4226,7 +4253,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4242,7 +4269,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4258,7 +4285,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4274,7 +4301,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4290,7 +4317,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4306,7 +4333,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4322,7 +4349,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4338,7 +4365,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4354,7 +4381,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4370,7 +4397,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4386,7 +4413,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4402,7 +4429,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4418,7 +4445,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4434,7 +4461,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4450,7 +4477,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4466,7 +4493,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4482,7 +4509,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4498,7 +4525,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4514,7 +4541,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4530,7 +4557,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4546,7 +4573,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4562,7 +4589,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4578,7 +4605,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4594,7 +4621,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4610,7 +4637,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4626,7 +4653,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="39"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4642,7 +4669,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4658,7 +4685,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4674,7 +4701,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4690,7 +4717,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4706,7 +4733,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4722,7 +4749,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4738,7 +4765,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4754,7 +4781,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="15"/>
       <c r="C102" s="41"/>
@@ -4772,23 +4799,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4811,7 +4838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4819,21 +4846,21 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
@@ -4846,7 +4873,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4875,7 +4902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -4895,17 +4922,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -4929,10 +4956,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="48">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>70</v>
+        <v>77.5</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -4960,7 +4987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4986,7 +5013,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5012,7 +5039,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5038,7 +5065,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5064,7 +5091,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5090,7 +5117,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5116,7 +5143,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5142,7 +5169,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5162,7 +5189,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5182,7 +5209,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5202,7 +5229,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5223,7 +5250,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5244,7 +5271,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5265,7 +5292,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5286,7 +5313,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5307,7 +5334,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5328,7 +5355,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5349,7 +5376,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5370,7 +5397,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5391,7 +5418,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5412,7 +5439,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5433,7 +5460,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5454,7 +5481,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5475,7 +5502,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5496,7 +5523,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5517,7 +5544,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5538,7 +5565,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5559,7 +5586,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5580,7 +5607,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5601,7 +5628,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5622,7 +5649,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5631,7 +5658,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5640,7 +5667,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5649,7 +5676,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5658,7 +5685,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5667,7 +5694,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5676,7 +5703,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5685,7 +5712,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5694,7 +5721,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5703,7 +5730,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5712,7 +5739,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5721,7 +5748,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5730,7 +5757,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5739,7 +5766,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5748,7 +5775,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5757,7 +5784,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5766,7 +5793,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5775,7 +5802,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5784,7 +5811,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5793,7 +5820,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5802,7 +5829,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5811,7 +5838,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5820,7 +5847,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5829,7 +5856,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5838,7 +5865,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5847,7 +5874,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5856,7 +5883,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5865,7 +5892,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5874,7 +5901,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5883,7 +5910,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/CABRAL, RAFAEL M..xlsx
+++ b/NEW HR/CABRAL, RAFAEL M..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F22DC1-9D5A-424C-820F-C68819534E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>PERIOD</t>
   </si>
@@ -191,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -564,8 +563,20 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -579,20 +590,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,50 +602,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -846,6 +809,24 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -888,6 +869,24 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1051,7 +1050,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1093,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1157,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1217,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1283,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1346,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1444,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1503,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1568,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1611,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1686,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1872,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1938,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +1996,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2062,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2118,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2193,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2236,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2302,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2358,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2456,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2519,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2568,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2586,25 +2585,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K102" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K102" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="1">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="0">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="12"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2616,13 +2615,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="7">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2631,14 +2630,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="3">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="2">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2942,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2952,7 +2951,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2960,95 +2959,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4788" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="4785" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="I11" sqref="I11"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="57">
         <v>44013</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3056,7 +3055,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3069,24 +3068,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3130,7 +3129,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>33.75</v>
+        <v>37.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3140,19 +3139,19 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>43.75</v>
+        <v>52.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="49" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="20"/>
@@ -3161,13 +3160,13 @@
         <v/>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="49" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>44013</v>
       </c>
@@ -3187,7 +3186,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>44044</v>
       </c>
@@ -3207,7 +3206,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>44075</v>
       </c>
@@ -3227,7 +3226,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>44105</v>
       </c>
@@ -3247,7 +3246,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>44136</v>
       </c>
@@ -3267,7 +3266,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>44166</v>
       </c>
@@ -3287,7 +3286,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>42</v>
       </c>
@@ -3305,7 +3304,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>44197</v>
       </c>
@@ -3325,7 +3324,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>44228</v>
       </c>
@@ -3345,7 +3344,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>44256</v>
       </c>
@@ -3365,7 +3364,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>44287</v>
       </c>
@@ -3385,7 +3384,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>44317</v>
       </c>
@@ -3405,7 +3404,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>44348</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>44378</v>
       </c>
@@ -3445,7 +3444,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>44409</v>
       </c>
@@ -3465,7 +3464,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>44440</v>
       </c>
@@ -3485,7 +3484,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>44470</v>
       </c>
@@ -3505,7 +3504,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>44501</v>
       </c>
@@ -3525,7 +3524,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>44531</v>
       </c>
@@ -3549,7 +3548,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>43</v>
       </c>
@@ -3567,7 +3566,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>44562</v>
       </c>
@@ -3587,7 +3586,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>44593</v>
       </c>
@@ -3607,7 +3606,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>44621</v>
       </c>
@@ -3627,7 +3626,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>44652</v>
       </c>
@@ -3647,7 +3646,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>44682</v>
       </c>
@@ -3667,7 +3666,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>44713</v>
       </c>
@@ -3687,7 +3686,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>44743</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>44774</v>
       </c>
@@ -3727,7 +3726,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>44805</v>
       </c>
@@ -3747,7 +3746,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>44835</v>
       </c>
@@ -3767,7 +3766,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>44866</v>
       </c>
@@ -3787,7 +3786,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>44896</v>
       </c>
@@ -3811,7 +3810,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>44</v>
       </c>
@@ -3829,7 +3828,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>44927</v>
       </c>
@@ -3849,7 +3848,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>44958</v>
       </c>
@@ -3869,7 +3868,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>44986</v>
       </c>
@@ -3889,7 +3888,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>45017</v>
       </c>
@@ -3909,7 +3908,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>45047</v>
       </c>
@@ -3929,124 +3928,154 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>45078</v>
       </c>
       <c r="B49" s="20"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="38"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>45108</v>
       </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="38"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="39">
+        <v>45139</v>
+      </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="38"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="38"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="39">
+        <v>45170</v>
+      </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="38"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="38"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="39">
+        <v>45200</v>
+      </c>
       <c r="B53" s="20"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="38"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="38"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="39">
+        <v>45231</v>
+      </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="38"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="38"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="38"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="38">
+        <v>5</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H55" s="38"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="39">
+        <v>45292</v>
+      </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="38"/>
@@ -4061,8 +4090,10 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="39">
+        <v>45323</v>
+      </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="38"/>
@@ -4077,8 +4108,10 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="39">
+        <v>45352</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="38"/>
@@ -4093,8 +4126,10 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="39">
+        <v>45383</v>
+      </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="38"/>
@@ -4109,7 +4144,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4125,7 +4160,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4141,7 +4176,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4157,7 +4192,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4173,7 +4208,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4189,7 +4224,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4205,7 +4240,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4221,7 +4256,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4237,7 +4272,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4253,7 +4288,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4269,7 +4304,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4285,7 +4320,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4301,7 +4336,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4317,7 +4352,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4333,7 +4368,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4349,7 +4384,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4365,7 +4400,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4381,7 +4416,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4397,7 +4432,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4413,7 +4448,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4429,7 +4464,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4445,7 +4480,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4461,7 +4496,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4477,7 +4512,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4493,7 +4528,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4509,7 +4544,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4525,7 +4560,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4541,7 +4576,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4557,7 +4592,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4573,7 +4608,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4589,7 +4624,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4605,7 +4640,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4621,7 +4656,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4637,7 +4672,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4653,7 +4688,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4669,7 +4704,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4685,7 +4720,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4701,7 +4736,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4717,7 +4752,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4733,7 +4768,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4749,7 +4784,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4765,7 +4800,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4781,7 +4816,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="15"/>
       <c r="C102" s="41"/>
@@ -4799,23 +4834,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4838,7 +4873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4846,34 +4881,34 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4902,7 +4937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -4922,17 +4957,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -4949,17 +4984,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>77.5</v>
+        <v>90</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -4987,7 +5022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5013,7 +5048,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5039,7 +5074,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5065,7 +5100,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5091,7 +5126,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5117,7 +5152,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5143,7 +5178,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5169,7 +5204,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5189,7 +5224,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5209,7 +5244,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5229,7 +5264,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5250,7 +5285,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5271,7 +5306,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5292,7 +5327,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5313,7 +5348,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5334,7 +5369,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5355,7 +5390,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5376,7 +5411,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5397,7 +5432,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5418,7 +5453,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5439,7 +5474,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5460,7 +5495,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5481,7 +5516,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5502,7 +5537,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5523,7 +5558,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5544,7 +5579,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5565,7 +5600,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5586,7 +5621,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5607,7 +5642,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5628,7 +5663,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5649,7 +5684,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5658,7 +5693,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5667,7 +5702,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5676,7 +5711,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5685,7 +5720,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5694,7 +5729,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5703,7 +5738,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5712,7 +5747,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5721,7 +5756,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5730,7 +5765,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5739,7 +5774,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5748,7 +5783,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5757,7 +5792,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5766,7 +5801,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5775,7 +5810,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5784,7 +5819,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5793,7 +5828,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5802,7 +5837,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5811,7 +5846,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5820,7 +5855,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5829,7 +5864,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5838,7 +5873,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5847,7 +5882,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5856,7 +5891,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5865,7 +5900,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5874,7 +5909,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5883,7 +5918,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5892,7 +5927,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5901,7 +5936,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5910,7 +5945,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
